--- a/Bills/2023/8/ANGAD ENTERPRISES - DWARKA SEC-2 HYBRID.xlsx
+++ b/Bills/2023/8/ANGAD ENTERPRISES - DWARKA SEC-2 HYBRID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0ca60d3e11cd5c/Desktop/hrManagementSystem/Bills/2023/8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D18B9D96B2A32778C698E5A7E8B5D60557DAA14C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_D18B9D96B2A32778C698E5A7E8B5D60557DAA14C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD44D3C7-4E02-4B09-87E9-CCFA2B1288EB}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31575" yWindow="2235" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="106">
   <si>
     <t xml:space="preserve">SUMMARY OF WAGES BILL </t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>MANPOWER DEPLOYED</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>MANPOWER ON MUSTER ROLL</t>
@@ -1161,9 +1155,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,6 +1494,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1789,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,17 +1793,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92"/>
+      <c r="A1" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1835,20 +1829,20 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="145" t="s">
+      <c r="C2" s="142"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="146" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1874,44 +1868,44 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="133" t="s">
+      <c r="C3" s="142"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="97"/>
-      <c r="G3" s="134" t="s">
+      <c r="F3" s="96"/>
+      <c r="G3" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="132">
+      <c r="M3" s="131">
         <v>27</v>
       </c>
-      <c r="N3" s="96"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="132">
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="131">
         <v>4</v>
       </c>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="97"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="96"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="132">
+      <c r="T3" s="131">
         <v>26</v>
       </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="132">
+      <c r="U3" s="95"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="131">
         <v>5</v>
       </c>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="97"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="96"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1922,58 +1916,58 @@
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="133" t="s">
+      <c r="E4" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="134" t="s">
+      <c r="F4" s="96"/>
+      <c r="G4" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="135" t="s">
+      <c r="M4" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="136" t="s">
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="97"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="96"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="135" t="s">
+      <c r="T4" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="137" t="s">
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="97"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="96"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="148" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="134" t="s">
+      <c r="F5" s="100"/>
+      <c r="G5" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2019,15 +2013,15 @@
       <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="150" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="97"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="14" t="s">
         <v>4</v>
       </c>
@@ -2075,13 +2069,13 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="17" t="s">
         <v>27</v>
       </c>
@@ -2147,25 +2141,25 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="23">
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="150">
+        <v>4</v>
+      </c>
+      <c r="G8" s="150">
+        <v>0</v>
+      </c>
+      <c r="H8" s="150">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
         <f>SUM($F$8:$H$8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2215,23 +2209,23 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="25">
+      <c r="A9" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="24">
         <v>8</v>
       </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="26">
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
         <f>SUM($F$9:$H$9)</f>
         <v>8</v>
       </c>
@@ -2250,9 +2244,9 @@
         <f>O7+R7</f>
         <v>0</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="1"/>
       <c r="T9" s="12">
         <f>T7+W7</f>
@@ -2271,38 +2265,38 @@
       <c r="Y9" s="7"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="131" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="131" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="24">
-        <v>0</v>
-      </c>
-      <c r="N10" s="24">
-        <v>0</v>
-      </c>
-      <c r="O10" s="24">
-        <v>0</v>
-      </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
+      <c r="M10" s="23">
+        <v>0</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
       <c r="S10" s="1"/>
       <c r="T10" s="11">
         <v>0</v>
@@ -2318,551 +2312,551 @@
       <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="128"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="G11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="H11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="I11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="K11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="35" t="s">
+      <c r="N11" s="95"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="122" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="96"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12" s="38">
         <v>1001916</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="40">
         <v>135</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>135</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>23</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <f>D12-C12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="42">
         <f t="shared" ref="G12:G17" si="0">F12*J12/$T$1</f>
         <v>0</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="40">
         <v>124</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <f t="shared" ref="I12:I17" si="1">H12*K12/$M$1</f>
         <v>108116</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <v>27029</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <v>27029</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="117" t="s">
+      <c r="M12" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="96"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="45">
+      <c r="N12" s="95"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="44">
         <f t="shared" ref="P12:P41" si="2">+C12</f>
         <v>135</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="44">
         <f t="shared" ref="Q12:Q41" si="3">+D12</f>
         <v>135</v>
       </c>
-      <c r="R12" s="45">
+      <c r="R12" s="44">
         <f t="shared" ref="R12:R41" si="4">+E12</f>
         <v>23</v>
       </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="119"/>
-      <c r="X12" s="119"/>
-      <c r="Y12" s="119"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="118"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>1004431</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="41">
+      <c r="B13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="40">
         <v>135</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>135</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>23</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="41">
         <f>D13-C13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="40">
         <v>124</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J13" s="35">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35">
+      <c r="J13" s="34">
+        <v>0</v>
+      </c>
+      <c r="K13" s="34">
         <v>0</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="117" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="45">
+      <c r="M13" s="116" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="95"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="44">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="44">
         <f t="shared" si="3"/>
         <v>135</v>
       </c>
-      <c r="R13" s="45">
+      <c r="R13" s="44">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="48"/>
+      <c r="U13" s="47"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="48"/>
+      <c r="Y13" s="47"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>1001917</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="41">
-        <v>0</v>
-      </c>
-      <c r="D14" s="42">
-        <v>0</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-      <c r="F14" s="42">
+      <c r="B14" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="40">
+        <v>0</v>
+      </c>
+      <c r="D14" s="41">
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
+        <v>0</v>
+      </c>
+      <c r="F14" s="41">
         <f>D14+E14-C14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="41">
-        <v>0</v>
-      </c>
-      <c r="I14" s="44">
+      <c r="H14" s="40">
+        <v>0</v>
+      </c>
+      <c r="I14" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>24466</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <v>24466</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="96"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="45">
+      <c r="M14" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="95"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="45">
+      <c r="R14" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="50"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="50"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="49"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>1001919</v>
       </c>
-      <c r="B15" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="41">
-        <v>0</v>
-      </c>
-      <c r="D15" s="42">
-        <v>0</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0</v>
-      </c>
-      <c r="F15" s="42">
+      <c r="B15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="40">
+        <v>0</v>
+      </c>
+      <c r="D15" s="41">
+        <v>0</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0</v>
+      </c>
+      <c r="F15" s="41">
         <f>D15+E15-C15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="41">
-        <v>0</v>
-      </c>
-      <c r="I15" s="44">
+      <c r="H15" s="40">
+        <v>0</v>
+      </c>
+      <c r="I15" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="35">
+      <c r="J15" s="34">
+        <v>0</v>
+      </c>
+      <c r="K15" s="34">
         <v>0</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="117" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="96"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="45">
+      <c r="M15" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="95"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="45">
+      <c r="R15" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>1001921</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="41">
-        <v>0</v>
-      </c>
-      <c r="D16" s="42">
-        <v>0</v>
-      </c>
-      <c r="E16" s="42">
-        <v>0</v>
-      </c>
-      <c r="F16" s="42">
+      <c r="B16" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="40">
+        <v>0</v>
+      </c>
+      <c r="D16" s="41">
+        <v>0</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0</v>
+      </c>
+      <c r="F16" s="41">
         <f>D16+E16-C16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="41">
-        <v>0</v>
-      </c>
-      <c r="I16" s="44">
+      <c r="H16" s="40">
+        <v>0</v>
+      </c>
+      <c r="I16" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <v>26390</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <v>26390</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="96"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="45">
+      <c r="M16" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="95"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="51"/>
+      <c r="U16" s="50"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>1001922</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="41">
-        <v>0</v>
-      </c>
-      <c r="D17" s="42">
-        <v>0</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0</v>
-      </c>
-      <c r="F17" s="42">
+      <c r="B17" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="40">
+        <v>0</v>
+      </c>
+      <c r="D17" s="41">
+        <v>0</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0</v>
+      </c>
+      <c r="F17" s="41">
         <f>D17+E17-C17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="41">
-        <v>0</v>
-      </c>
-      <c r="I17" s="44">
+      <c r="H17" s="40">
+        <v>0</v>
+      </c>
+      <c r="I17" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="35">
-        <v>0</v>
-      </c>
-      <c r="K17" s="35">
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="34">
         <v>0</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="96"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="45">
+      <c r="M17" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="95"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="51"/>
+      <c r="U17" s="50"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>1008433</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="41">
-        <v>0</v>
-      </c>
-      <c r="D18" s="42">
-        <v>0</v>
-      </c>
-      <c r="E18" s="42">
-        <v>0</v>
-      </c>
-      <c r="F18" s="42">
+      <c r="B18" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="40">
+        <v>0</v>
+      </c>
+      <c r="D18" s="41">
+        <v>0</v>
+      </c>
+      <c r="E18" s="41">
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
         <f t="shared" ref="F18:F41" si="5">D18-C18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="42">
         <f t="shared" ref="G18:G29" si="6">F18*J18/26</f>
         <v>0</v>
       </c>
-      <c r="H18" s="41">
-        <v>0</v>
-      </c>
-      <c r="I18" s="44">
+      <c r="H18" s="40">
+        <v>0</v>
+      </c>
+      <c r="I18" s="43">
         <f t="shared" ref="I18:I29" si="7">H18*K18/26</f>
         <v>0</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="34">
         <v>23104</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="34">
         <v>23104</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="96"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="45">
+      <c r="M18" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="95"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="45">
+      <c r="Q18" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R18" s="45">
+      <c r="R18" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="51"/>
+      <c r="U18" s="50"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="46">
+      <c r="A19" s="45">
         <v>1008434</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="41">
-        <v>0</v>
-      </c>
-      <c r="D19" s="42">
-        <v>0</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0</v>
-      </c>
-      <c r="F19" s="42">
+      <c r="B19" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="40">
+        <v>0</v>
+      </c>
+      <c r="D19" s="41">
+        <v>0</v>
+      </c>
+      <c r="E19" s="41">
+        <v>0</v>
+      </c>
+      <c r="F19" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="41">
-        <v>0</v>
-      </c>
-      <c r="I19" s="44">
+      <c r="H19" s="40">
+        <v>0</v>
+      </c>
+      <c r="I19" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J19" s="35">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35">
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="34">
         <v>0</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="96"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="45">
+      <c r="M19" s="116" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="95"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="45">
+      <c r="R19" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2875,57 +2869,57 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="46">
+      <c r="A20" s="45">
         <v>1008435</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="41">
-        <v>0</v>
-      </c>
-      <c r="D20" s="42">
-        <v>0</v>
-      </c>
-      <c r="E20" s="42">
-        <v>0</v>
-      </c>
-      <c r="F20" s="42">
+      <c r="B20" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="40">
+        <v>0</v>
+      </c>
+      <c r="D20" s="41">
+        <v>0</v>
+      </c>
+      <c r="E20" s="41">
+        <v>0</v>
+      </c>
+      <c r="F20" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="41">
-        <v>0</v>
-      </c>
-      <c r="I20" s="44">
+      <c r="H20" s="40">
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <v>24466</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <v>24466</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="96"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="45">
+      <c r="M20" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="95"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R20" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2938,57 +2932,57 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="46">
+      <c r="A21" s="45">
         <v>1008436</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="41">
-        <v>0</v>
-      </c>
-      <c r="D21" s="42">
-        <v>0</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0</v>
-      </c>
-      <c r="F21" s="42">
+      <c r="B21" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="40">
+        <v>0</v>
+      </c>
+      <c r="D21" s="41">
+        <v>0</v>
+      </c>
+      <c r="E21" s="41">
+        <v>0</v>
+      </c>
+      <c r="F21" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="41">
-        <v>0</v>
-      </c>
-      <c r="I21" s="44">
+      <c r="H21" s="40">
+        <v>0</v>
+      </c>
+      <c r="I21" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J21" s="35">
-        <v>0</v>
-      </c>
-      <c r="K21" s="35">
+      <c r="J21" s="34">
+        <v>0</v>
+      </c>
+      <c r="K21" s="34">
         <v>0</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" s="96"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="45">
+      <c r="M21" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="95"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="45">
+      <c r="Q21" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R21" s="45">
+      <c r="R21" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3001,57 +2995,57 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="46">
+      <c r="A22" s="45">
         <v>1008437</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="41">
-        <v>0</v>
-      </c>
-      <c r="D22" s="42">
-        <v>0</v>
-      </c>
-      <c r="E22" s="42">
-        <v>0</v>
-      </c>
-      <c r="F22" s="42">
+      <c r="B22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="40">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
+        <v>0</v>
+      </c>
+      <c r="E22" s="41">
+        <v>0</v>
+      </c>
+      <c r="F22" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="41">
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
+      <c r="H22" s="40">
+        <v>0</v>
+      </c>
+      <c r="I22" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <v>26390</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="34">
         <v>26390</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="96"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="45">
+      <c r="M22" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="95"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="45">
+      <c r="Q22" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R22" s="45">
+      <c r="R22" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3064,57 +3058,57 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="46">
+      <c r="A23" s="45">
         <v>1008438</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="41">
-        <v>0</v>
-      </c>
-      <c r="D23" s="42">
-        <v>0</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0</v>
-      </c>
-      <c r="F23" s="42">
+      <c r="B23" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="40">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>0</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
+      <c r="F23" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H23" s="41">
-        <v>0</v>
-      </c>
-      <c r="I23" s="44">
+      <c r="H23" s="40">
+        <v>0</v>
+      </c>
+      <c r="I23" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J23" s="35">
-        <v>0</v>
-      </c>
-      <c r="K23" s="35">
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="34">
         <v>0</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="96"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="45">
+      <c r="M23" s="116" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="95"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="45">
+      <c r="Q23" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3127,57 +3121,57 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+      <c r="A24" s="45">
         <v>1008439</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="41">
-        <v>0</v>
-      </c>
-      <c r="D24" s="42">
-        <v>0</v>
-      </c>
-      <c r="E24" s="42">
-        <v>0</v>
-      </c>
-      <c r="F24" s="42">
+      <c r="B24" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="40">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+      <c r="F24" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="40">
         <v>4</v>
       </c>
-      <c r="I24" s="44">
+      <c r="I24" s="43">
         <f t="shared" si="7"/>
         <v>3554.4615384615386</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="34">
         <v>23104</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="34">
         <v>23104</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="96"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="45">
+      <c r="M24" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" s="95"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="Q24" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R24" s="45">
+      <c r="R24" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3190,57 +3184,57 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="46">
+      <c r="A25" s="45">
         <v>1008440</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="41">
-        <v>0</v>
-      </c>
-      <c r="D25" s="42">
-        <v>0</v>
-      </c>
-      <c r="E25" s="42">
-        <v>0</v>
-      </c>
-      <c r="F25" s="42">
+      <c r="B25" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="40">
+        <v>0</v>
+      </c>
+      <c r="D25" s="41">
+        <v>0</v>
+      </c>
+      <c r="E25" s="41">
+        <v>0</v>
+      </c>
+      <c r="F25" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="40">
         <v>4</v>
       </c>
-      <c r="I25" s="44">
+      <c r="I25" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J25" s="35">
-        <v>0</v>
-      </c>
-      <c r="K25" s="35">
+      <c r="J25" s="34">
+        <v>0</v>
+      </c>
+      <c r="K25" s="34">
         <v>0</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="96"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="45">
+      <c r="M25" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="95"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q25" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R25" s="45">
+      <c r="R25" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3253,57 +3247,57 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="46">
+      <c r="A26" s="45">
         <v>1008441</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="41">
-        <v>0</v>
-      </c>
-      <c r="D26" s="42">
-        <v>0</v>
-      </c>
-      <c r="E26" s="42">
-        <v>0</v>
-      </c>
-      <c r="F26" s="42">
+      <c r="B26" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="40">
+        <v>0</v>
+      </c>
+      <c r="D26" s="41">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0</v>
+      </c>
+      <c r="F26" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H26" s="41">
-        <v>0</v>
-      </c>
-      <c r="I26" s="44">
+      <c r="H26" s="40">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="34">
         <v>24466</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="34">
         <v>24466</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="N26" s="96"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="45">
+      <c r="M26" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="95"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R26" s="45">
+      <c r="R26" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3316,57 +3310,57 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="46">
+      <c r="A27" s="45">
         <v>1008442</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="41">
-        <v>0</v>
-      </c>
-      <c r="D27" s="42">
-        <v>0</v>
-      </c>
-      <c r="E27" s="42">
-        <v>0</v>
-      </c>
-      <c r="F27" s="42">
+      <c r="B27" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="40">
+        <v>0</v>
+      </c>
+      <c r="D27" s="41">
+        <v>0</v>
+      </c>
+      <c r="E27" s="41">
+        <v>0</v>
+      </c>
+      <c r="F27" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H27" s="41">
-        <v>0</v>
-      </c>
-      <c r="I27" s="44">
+      <c r="H27" s="40">
+        <v>0</v>
+      </c>
+      <c r="I27" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J27" s="35">
-        <v>0</v>
-      </c>
-      <c r="K27" s="35">
+      <c r="J27" s="34">
+        <v>0</v>
+      </c>
+      <c r="K27" s="34">
         <v>0</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="N27" s="96"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="45">
+      <c r="M27" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="95"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="Q27" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R27" s="45">
+      <c r="R27" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3379,57 +3373,57 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="46">
+      <c r="A28" s="45">
         <v>1008443</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="41">
-        <v>0</v>
-      </c>
-      <c r="D28" s="42">
-        <v>0</v>
-      </c>
-      <c r="E28" s="42">
-        <v>0</v>
-      </c>
-      <c r="F28" s="42">
+      <c r="B28" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="40">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41">
+        <v>0</v>
+      </c>
+      <c r="E28" s="41">
+        <v>0</v>
+      </c>
+      <c r="F28" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H28" s="41">
-        <v>0</v>
-      </c>
-      <c r="I28" s="44">
+      <c r="H28" s="40">
+        <v>0</v>
+      </c>
+      <c r="I28" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="34">
         <v>26390</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="34">
         <v>26390</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="N28" s="96"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="45">
+      <c r="M28" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="95"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R28" s="45">
+      <c r="R28" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3442,57 +3436,57 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="46">
+      <c r="A29" s="45">
         <v>1008444</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="41">
-        <v>0</v>
-      </c>
-      <c r="D29" s="42">
-        <v>0</v>
-      </c>
-      <c r="E29" s="42">
-        <v>0</v>
-      </c>
-      <c r="F29" s="42">
+      <c r="B29" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="40">
+        <v>0</v>
+      </c>
+      <c r="D29" s="41">
+        <v>0</v>
+      </c>
+      <c r="E29" s="41">
+        <v>0</v>
+      </c>
+      <c r="F29" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="42">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H29" s="41">
-        <v>0</v>
-      </c>
-      <c r="I29" s="44">
+      <c r="H29" s="40">
+        <v>0</v>
+      </c>
+      <c r="I29" s="43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J29" s="35">
-        <v>0</v>
-      </c>
-      <c r="K29" s="35">
+      <c r="J29" s="34">
+        <v>0</v>
+      </c>
+      <c r="K29" s="34">
         <v>0</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="N29" s="96"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="45">
+      <c r="M29" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="95"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="Q29" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R29" s="45">
+      <c r="R29" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3505,57 +3499,57 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="46">
+      <c r="A30" s="45">
         <v>1008445</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="41">
+      <c r="B30" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="40">
         <v>3</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>3</v>
       </c>
-      <c r="E30" s="42">
-        <v>0</v>
-      </c>
-      <c r="F30" s="42">
+      <c r="E30" s="41">
+        <v>0</v>
+      </c>
+      <c r="F30" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="42">
         <f t="shared" ref="G30:G35" si="8">F30*J30/$T$1</f>
         <v>0</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="40">
         <v>4</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="43">
         <f t="shared" ref="I30:I35" si="9">H30*K30/$M$1</f>
         <v>2981.1612903225805</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="34">
         <v>23104</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="34">
         <v>23104</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" s="96"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="45">
+      <c r="M30" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" s="95"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="44">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="44">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R30" s="45">
+      <c r="R30" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3568,57 +3562,57 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="46">
+      <c r="A31" s="45">
         <v>1008446</v>
       </c>
-      <c r="B31" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="41">
+      <c r="B31" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="40">
         <v>3</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="41">
         <v>3</v>
       </c>
-      <c r="E31" s="42">
-        <v>0</v>
-      </c>
-      <c r="F31" s="42">
+      <c r="E31" s="41">
+        <v>0</v>
+      </c>
+      <c r="F31" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="40">
         <v>4</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J31" s="35">
-        <v>0</v>
-      </c>
-      <c r="K31" s="35">
+      <c r="J31" s="34">
+        <v>0</v>
+      </c>
+      <c r="K31" s="34">
         <v>0</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="45">
+      <c r="M31" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="95"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="44">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q31" s="45">
+      <c r="Q31" s="44">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R31" s="45">
+      <c r="R31" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3631,57 +3625,57 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="46">
+      <c r="A32" s="45">
         <v>1008447</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="41">
-        <v>0</v>
-      </c>
-      <c r="D32" s="42">
-        <v>0</v>
-      </c>
-      <c r="E32" s="42">
-        <v>0</v>
-      </c>
-      <c r="F32" s="42">
+      <c r="B32" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="40">
+        <v>0</v>
+      </c>
+      <c r="D32" s="41">
+        <v>0</v>
+      </c>
+      <c r="E32" s="41">
+        <v>0</v>
+      </c>
+      <c r="F32" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H32" s="41">
-        <v>0</v>
-      </c>
-      <c r="I32" s="44">
+      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="I32" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="34">
         <v>24466</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="34">
         <v>24466</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="45">
+      <c r="M32" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="95"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="45">
+      <c r="Q32" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R32" s="45">
+      <c r="R32" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3694,57 +3688,57 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="46">
+      <c r="A33" s="45">
         <v>1008448</v>
       </c>
-      <c r="B33" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="41">
-        <v>0</v>
-      </c>
-      <c r="D33" s="42">
-        <v>0</v>
-      </c>
-      <c r="E33" s="42">
-        <v>0</v>
-      </c>
-      <c r="F33" s="42">
+      <c r="B33" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="40">
+        <v>0</v>
+      </c>
+      <c r="D33" s="41">
+        <v>0</v>
+      </c>
+      <c r="E33" s="41">
+        <v>0</v>
+      </c>
+      <c r="F33" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H33" s="41">
-        <v>0</v>
-      </c>
-      <c r="I33" s="44">
+      <c r="H33" s="40">
+        <v>0</v>
+      </c>
+      <c r="I33" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J33" s="35">
-        <v>0</v>
-      </c>
-      <c r="K33" s="35">
+      <c r="J33" s="34">
+        <v>0</v>
+      </c>
+      <c r="K33" s="34">
         <v>0</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="96"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="45">
+      <c r="M33" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="N33" s="95"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="45">
+      <c r="Q33" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R33" s="45">
+      <c r="R33" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3757,57 +3751,57 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="46">
+      <c r="A34" s="45">
         <v>1008449</v>
       </c>
-      <c r="B34" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="41">
-        <v>0</v>
-      </c>
-      <c r="D34" s="42">
-        <v>0</v>
-      </c>
-      <c r="E34" s="42">
-        <v>0</v>
-      </c>
-      <c r="F34" s="42">
+      <c r="B34" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="40">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41">
+        <v>0</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0</v>
+      </c>
+      <c r="F34" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G34" s="43">
+      <c r="G34" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H34" s="41">
-        <v>0</v>
-      </c>
-      <c r="I34" s="44">
+      <c r="H34" s="40">
+        <v>0</v>
+      </c>
+      <c r="I34" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="34">
         <v>26390</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="34">
         <v>26390</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="117" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" s="96"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="45">
+      <c r="M34" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="95"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="45">
+      <c r="Q34" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R34" s="45">
+      <c r="R34" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3820,57 +3814,57 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="46">
+      <c r="A35" s="45">
         <v>1008450</v>
       </c>
-      <c r="B35" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="41">
-        <v>0</v>
-      </c>
-      <c r="D35" s="42">
-        <v>0</v>
-      </c>
-      <c r="E35" s="42">
-        <v>0</v>
-      </c>
-      <c r="F35" s="42">
+      <c r="B35" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="40">
+        <v>0</v>
+      </c>
+      <c r="D35" s="41">
+        <v>0</v>
+      </c>
+      <c r="E35" s="41">
+        <v>0</v>
+      </c>
+      <c r="F35" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H35" s="41">
-        <v>0</v>
-      </c>
-      <c r="I35" s="44">
+      <c r="H35" s="40">
+        <v>0</v>
+      </c>
+      <c r="I35" s="43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J35" s="35">
-        <v>0</v>
-      </c>
-      <c r="K35" s="35">
+      <c r="J35" s="34">
+        <v>0</v>
+      </c>
+      <c r="K35" s="34">
         <v>0</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="N35" s="96"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="45">
+      <c r="M35" s="116" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="95"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="45">
+      <c r="Q35" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R35" s="45">
+      <c r="R35" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3883,57 +3877,57 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" s="46">
+      <c r="A36" s="45">
         <v>1008451</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="41">
-        <v>0</v>
-      </c>
-      <c r="D36" s="42">
-        <v>0</v>
-      </c>
-      <c r="E36" s="42">
-        <v>0</v>
-      </c>
-      <c r="F36" s="42">
+      <c r="B36" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="40">
+        <v>0</v>
+      </c>
+      <c r="D36" s="41">
+        <v>0</v>
+      </c>
+      <c r="E36" s="41">
+        <v>0</v>
+      </c>
+      <c r="F36" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G36" s="43">
+      <c r="G36" s="42">
         <f t="shared" ref="G36:G41" si="10">F36*J36/26</f>
         <v>0</v>
       </c>
-      <c r="H36" s="41">
-        <v>0</v>
-      </c>
-      <c r="I36" s="44">
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
+      <c r="I36" s="43">
         <f t="shared" ref="I36:I41" si="11">H36*K36/26</f>
         <v>0</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="34">
         <v>23104</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="34">
         <v>23104</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="N36" s="96"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="45">
+      <c r="M36" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" s="95"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="45">
+      <c r="Q36" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R36" s="45">
+      <c r="R36" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3946,57 +3940,57 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" s="46">
+      <c r="A37" s="45">
         <v>1008452</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="41">
-        <v>0</v>
-      </c>
-      <c r="D37" s="42">
-        <v>0</v>
-      </c>
-      <c r="E37" s="42">
-        <v>0</v>
-      </c>
-      <c r="F37" s="42">
+      <c r="B37" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="40">
+        <v>0</v>
+      </c>
+      <c r="D37" s="41">
+        <v>0</v>
+      </c>
+      <c r="E37" s="41">
+        <v>0</v>
+      </c>
+      <c r="F37" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="41">
-        <v>0</v>
-      </c>
-      <c r="I37" s="44">
+      <c r="H37" s="40">
+        <v>0</v>
+      </c>
+      <c r="I37" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J37" s="35">
-        <v>0</v>
-      </c>
-      <c r="K37" s="35">
+      <c r="J37" s="34">
+        <v>0</v>
+      </c>
+      <c r="K37" s="34">
         <v>0</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="N37" s="96"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="45">
+      <c r="M37" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="N37" s="95"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="45">
+      <c r="Q37" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R37" s="45">
+      <c r="R37" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4009,57 +4003,57 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="46">
+      <c r="A38" s="45">
         <v>1008453</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="41">
-        <v>0</v>
-      </c>
-      <c r="D38" s="42">
-        <v>0</v>
-      </c>
-      <c r="E38" s="42">
-        <v>0</v>
-      </c>
-      <c r="F38" s="42">
+      <c r="B38" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="40">
+        <v>0</v>
+      </c>
+      <c r="D38" s="41">
+        <v>0</v>
+      </c>
+      <c r="E38" s="41">
+        <v>0</v>
+      </c>
+      <c r="F38" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G38" s="43">
+      <c r="G38" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H38" s="41">
-        <v>0</v>
-      </c>
-      <c r="I38" s="44">
+      <c r="H38" s="40">
+        <v>0</v>
+      </c>
+      <c r="I38" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="34">
         <v>24466</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="34">
         <v>24466</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="N38" s="96"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="45">
+      <c r="M38" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" s="95"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="45">
+      <c r="Q38" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R38" s="45">
+      <c r="R38" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4072,57 +4066,57 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" s="46">
+      <c r="A39" s="45">
         <v>1008454</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="41">
-        <v>0</v>
-      </c>
-      <c r="D39" s="42">
-        <v>0</v>
-      </c>
-      <c r="E39" s="42">
-        <v>0</v>
-      </c>
-      <c r="F39" s="42">
+      <c r="B39" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="40">
+        <v>0</v>
+      </c>
+      <c r="D39" s="41">
+        <v>0</v>
+      </c>
+      <c r="E39" s="41">
+        <v>0</v>
+      </c>
+      <c r="F39" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H39" s="41">
-        <v>0</v>
-      </c>
-      <c r="I39" s="44">
+      <c r="H39" s="40">
+        <v>0</v>
+      </c>
+      <c r="I39" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J39" s="35">
-        <v>0</v>
-      </c>
-      <c r="K39" s="35">
+      <c r="J39" s="34">
+        <v>0</v>
+      </c>
+      <c r="K39" s="34">
         <v>0</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="N39" s="96"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="45">
+      <c r="M39" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39" s="95"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="45">
+      <c r="Q39" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R39" s="45">
+      <c r="R39" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4135,57 +4129,57 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" s="46">
+      <c r="A40" s="45">
         <v>1008455</v>
       </c>
-      <c r="B40" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="41">
-        <v>0</v>
-      </c>
-      <c r="D40" s="42">
-        <v>0</v>
-      </c>
-      <c r="E40" s="42">
-        <v>0</v>
-      </c>
-      <c r="F40" s="42">
+      <c r="B40" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="41">
+        <v>0</v>
+      </c>
+      <c r="E40" s="41">
+        <v>0</v>
+      </c>
+      <c r="F40" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H40" s="41">
-        <v>0</v>
-      </c>
-      <c r="I40" s="44">
+      <c r="H40" s="40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="34">
         <v>26390</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="34">
         <v>26390</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="N40" s="96"/>
-      <c r="O40" s="97"/>
-      <c r="P40" s="45">
+      <c r="M40" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="N40" s="95"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="45">
+      <c r="Q40" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R40" s="45">
+      <c r="R40" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4198,57 +4192,57 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" s="46">
+      <c r="A41" s="45">
         <v>1008456</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="42">
-        <v>0</v>
-      </c>
-      <c r="E41" s="42">
-        <v>0</v>
-      </c>
-      <c r="F41" s="42">
+      <c r="B41" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="40">
+        <v>0</v>
+      </c>
+      <c r="D41" s="41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H41" s="41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="44">
+      <c r="H41" s="40">
+        <v>0</v>
+      </c>
+      <c r="I41" s="43">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J41" s="35">
-        <v>0</v>
-      </c>
-      <c r="K41" s="35">
+      <c r="J41" s="34">
+        <v>0</v>
+      </c>
+      <c r="K41" s="34">
         <v>0</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="N41" s="96"/>
-      <c r="O41" s="97"/>
-      <c r="P41" s="45">
+      <c r="M41" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" s="95"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="45">
+      <c r="Q41" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R41" s="45">
+      <c r="R41" s="44">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4261,27 +4255,27 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
-      <c r="B42" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="53">
-        <v>0</v>
-      </c>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="52">
+        <v>0</v>
+      </c>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="119"/>
-      <c r="O42" s="119"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="118"/>
+      <c r="O42" s="118"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -4292,23 +4286,23 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
-      <c r="B43" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="53">
-        <v>0</v>
-      </c>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="52">
+        <v>0</v>
+      </c>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4323,17 +4317,17 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
-      <c r="B44" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="53">
+      <c r="A44" s="45"/>
+      <c r="B44" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="52">
         <v>0</v>
       </c>
       <c r="J44" s="1"/>
@@ -4354,17 +4348,17 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="53">
+      <c r="A45" s="56"/>
+      <c r="B45" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="52">
         <v>0</v>
       </c>
       <c r="J45" s="1"/>
@@ -4385,22 +4379,22 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="57"/>
-      <c r="B46" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="61">
-        <v>0</v>
-      </c>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="60">
+        <v>0</v>
+      </c>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4416,32 +4410,32 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="62">
+      <c r="A47" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="61">
         <f>+F12+F14+F16</f>
         <v>0</v>
       </c>
-      <c r="G47" s="63">
+      <c r="G47" s="62">
         <f>SUM(G12:G45)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="62">
+      <c r="H47" s="61">
         <f>+H12+H14+H16</f>
         <v>124</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="62">
         <f>SUM(I12:I46)</f>
         <v>114651.62282878411</v>
       </c>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -4457,25 +4451,25 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="64">
+      <c r="A48" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="63">
         <f>+G47+I47</f>
         <v>114651.62282878411</v>
       </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="62"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="54"/>
+      <c r="N48" s="53"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -4489,17 +4483,17 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="87"/>
+      <c r="A49" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="86"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4518,28 +4512,28 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50" s="114" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="66">
+      <c r="A50" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="65">
         <v>3800</v>
       </c>
-      <c r="I50" s="93">
+      <c r="I50" s="92">
         <f>SUM(H50:H52)</f>
         <v>3800</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="54"/>
+      <c r="M50" s="53"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -4554,17 +4548,17 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51" s="115"/>
-      <c r="B51" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="112"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="111"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4583,17 +4577,17 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="115"/>
-      <c r="B52" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="94"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="93"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -4612,23 +4606,23 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="87"/>
+      <c r="A53" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="69"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="68"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -4641,30 +4635,30 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="81">
+      <c r="A54" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="80">
         <v>250</v>
       </c>
-      <c r="I54" s="139">
+      <c r="I54" s="138">
         <f>SUM(H54:H61)</f>
         <v>250</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="69"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="68"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -4677,23 +4671,23 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A55" s="115"/>
-      <c r="B55" s="104" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="140"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="139"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="69"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="68"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -4706,23 +4700,23 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" s="115"/>
-      <c r="B56" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="140"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="139"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="69"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="68"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -4735,23 +4729,23 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A57" s="115"/>
-      <c r="B57" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="140"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="139"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="69"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="68"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -4764,23 +4758,23 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="140"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="139"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="69"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="68"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -4793,23 +4787,23 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" s="115"/>
-      <c r="B59" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="140"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="95"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="139"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="69"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="68"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -4822,23 +4816,23 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A60" s="115"/>
-      <c r="B60" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="140"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="139"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="69"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="68"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -4851,23 +4845,23 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="115"/>
-      <c r="B61" s="104" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="140"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="139"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="69"/>
+      <c r="M61" s="67"/>
+      <c r="N61" s="67"/>
+      <c r="O61" s="68"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -4880,23 +4874,23 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="87"/>
+      <c r="A62" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="86"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="69"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="67"/>
+      <c r="O62" s="68"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -4909,29 +4903,29 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="110"/>
-      <c r="H63" s="70">
-        <v>0</v>
-      </c>
-      <c r="I63" s="111">
+      <c r="A63" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="69">
+        <v>0</v>
+      </c>
+      <c r="I63" s="110">
         <f>SUM(H63:H64)</f>
         <v>15000</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -4945,19 +4939,19 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="107"/>
-      <c r="B64" s="113" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="100"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="100"/>
-      <c r="G64" s="101"/>
-      <c r="H64" s="71">
+      <c r="A64" s="106"/>
+      <c r="B64" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="70">
         <v>15000</v>
       </c>
-      <c r="I64" s="112"/>
+      <c r="I64" s="111"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -4976,17 +4970,17 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="72">
+      <c r="A65" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="71">
         <f>+F48+I50+I63</f>
         <v>133451.62282878411</v>
       </c>
@@ -5008,22 +5002,22 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66" s="90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="73">
+      <c r="A66" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="90"/>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="72">
         <f>ROUND(I65*18%,0)</f>
         <v>24021</v>
       </c>
-      <c r="I66" s="93">
+      <c r="I66" s="92">
         <f>H66+H67</f>
         <v>24021</v>
       </c>
@@ -5045,15 +5039,15 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="89"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="94"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="93"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -5072,22 +5066,22 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="101"/>
-      <c r="H68" s="75">
+      <c r="A68" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="74">
         <f>+(I65)*1%</f>
         <v>1334.5162282878412</v>
       </c>
-      <c r="I68" s="76">
+      <c r="I68" s="75">
         <f>H68</f>
         <v>1334.5162282878412</v>
       </c>
@@ -5109,17 +5103,17 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="89"/>
-      <c r="B69" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="77">
+      <c r="A69" s="88"/>
+      <c r="B69" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="76">
         <f>+I65+I66-I68</f>
         <v>156138.10660049628</v>
       </c>
@@ -5141,7 +5135,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="78"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -5149,7 +5143,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="79"/>
+      <c r="I70" s="78"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -5168,20 +5162,20 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="86">
+      <c r="A71" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="85">
         <f>+I69+I54</f>
         <v>156388.10660049628</v>
       </c>
-      <c r="I71" s="87"/>
+      <c r="I71" s="86"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -5200,7 +5194,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A72" s="80"/>
+      <c r="A72" s="79"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
